--- a/Project 1/StaticParameters/FinalParameters/mean_rsds.xlsx
+++ b/Project 1/StaticParameters/FinalParameters/mean_rsds.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.55934858491676</v>
+        <v>97.74006779020148</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.33921013147449</v>
+        <v>100.2898284313726</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.40540115326075</v>
+        <v>103.7388329304325</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102.092094017094</v>
+        <v>109.5316847972065</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92.34925323439877</v>
+        <v>100.2122683319903</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.5882165563262</v>
+        <v>103.8160224472303</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95.23688678140734</v>
+        <v>99.05889403706688</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>96.87711296979278</v>
+        <v>104.6977639000806</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>94.08151855754595</v>
+        <v>98.80413644910017</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.33734083823735</v>
+        <v>101.6585335636987</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>98.09303030968272</v>
+        <v>105.4137724952995</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.55149133590915</v>
+        <v>103.8547542304593</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.87817402821685</v>
+        <v>108.4159448025786</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>101.0084565176778</v>
+        <v>108.5953304135862</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.9249509717832</v>
+        <v>110.5993687886113</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>102.5246085060298</v>
+        <v>109.6007117915659</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>102.061219778129</v>
+        <v>109.9247515444534</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.6571833695297</v>
+        <v>106.4228309493196</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>103.3032256176092</v>
+        <v>108.8094480257857</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>90.71534436834094</v>
+        <v>94.67323730862208</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.51757478632479</v>
+        <v>101.5641384636046</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.01116029727712</v>
+        <v>97.43377330440373</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>96.63497321742184</v>
+        <v>101.8751813053989</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.1632116409086</v>
+        <v>105.540149073328</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.4957905251142</v>
+        <v>105.3137959978512</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>97.48625669924338</v>
+        <v>102.3792892156863</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.05505649221402</v>
+        <v>104.5360730593607</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>101.7594975705421</v>
+        <v>105.3181842600054</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>94.12826293759512</v>
+        <v>100.2066377921032</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.5900281981225</v>
+        <v>105.1283282438659</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96.87105908266011</v>
+        <v>100.8492412033307</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>99.48419279065685</v>
+        <v>104.669423180231</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.20827076747452</v>
+        <v>96.20641283910824</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>92.45369640605297</v>
+        <v>96.4845106075217</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>99.26672557370333</v>
+        <v>104.5483380338437</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.43687507317647</v>
+        <v>101.4532299221058</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>95.39375914705539</v>
+        <v>103.2483279613215</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>96.05778097414881</v>
+        <v>100.9931693989071</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.08899243355579</v>
+        <v>98.97944869728713</v>
       </c>
     </row>
   </sheetData>
